--- a/dbQuery.xlsx
+++ b/dbQuery.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Bank</t>
-  </si>
-  <si>
-    <t>Select * from dbo.country where countrypseudo ='{{ref_text}}'</t>
   </si>
   <si>
     <t>Stock</t>
@@ -42,6 +39,15 @@
 Where
 Stock_Item_Num = '{{ref_text}}'
 order by st.Last_Updated_Datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select * from dbo.country where countrypseudo ='{{ref_text}}' </t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select * from dbo.Products where ProductName ='{{ref_text}}' </t>
   </si>
 </sst>
 </file>
@@ -362,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,15 +381,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
